--- a/artfynd/A 57330-2022.xlsx
+++ b/artfynd/A 57330-2022.xlsx
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575009.512799539</v>
+        <v>575010</v>
       </c>
       <c r="R3" t="n">
-        <v>6299808.469029811</v>
+        <v>6299808</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,19 +874,9 @@
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-11-02</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
